--- a/biology/Zoologie/Apozomus_buxtoni/Apozomus_buxtoni.xlsx
+++ b/biology/Zoologie/Apozomus_buxtoni/Apozomus_buxtoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apozomus buxtoni est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apozomus buxtoni mesure 3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apozomus buxtoni mesure 3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Bertram Henry Buxton (1852-1934)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Bertram Henry Buxton (1852-1934).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gravely, 1915 : Notes on Pedipalpi in the collection of the Indian Museum. V. Tartarides collected by Mr. B.H. Buxton in Ceylon and the Malay Peninsula. Records of the Indian Museum, vol. 11, p. 383-386 (texte intégral).</t>
         </is>
